--- a/data/results/sag/SAG Local XGBoost Testing Results.xlsx
+++ b/data/results/sag/SAG Local XGBoost Testing Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbrandt/Dropbox/PycharmProjects/short_answer_granding_capstone_project/data/results/sag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9EED2-6C7E-9140-AACC-B413E5AFCBD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB03FF-23C5-444D-811D-9DCC43A497F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44400" yWindow="2300" windowWidth="30940" windowHeight="26220" xr2:uid="{98773DA3-37B5-D741-8ED4-95FED174B96A}"/>
+    <workbookView xWindow="18560" yWindow="460" windowWidth="30940" windowHeight="26220" xr2:uid="{98773DA3-37B5-D741-8ED4-95FED174B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="SEB TF Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Test #</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Improved precision and accuracy </t>
-  </si>
-  <si>
     <t>max_depth</t>
   </si>
   <si>
@@ -111,30 +108,15 @@
     <t>Reduce epocs to see if we are overtraining.</t>
   </si>
   <si>
-    <t>Slightly Improved accuracy</t>
-  </si>
-  <si>
     <t>Adjuist Gamma to reduce overfitting</t>
   </si>
   <si>
     <t>Increase Max Depth</t>
   </si>
   <si>
-    <t>Slight loss of accuracy</t>
-  </si>
-  <si>
-    <t>Increase iterations to handle depth</t>
-  </si>
-  <si>
-    <t>Better recal worse precision</t>
-  </si>
-  <si>
     <t>Adust min child weight for more aggressive model</t>
   </si>
   <si>
-    <t>Adust sub sample for more conservative model</t>
-  </si>
-  <si>
     <t>Reduced accuracy</t>
   </si>
   <si>
@@ -163,6 +145,44 @@
   </si>
   <si>
     <t>Reduced F1 accuracy</t>
+  </si>
+  <si>
+    <t>Insufficient epochd to converge</t>
+  </si>
+  <si>
+    <t>Reduced recal</t>
+  </si>
+  <si>
+    <t>Adjust gamma</t>
+  </si>
+  <si>
+    <t>Adjust sub sample for more conservative model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>binary:logistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with optimal parmeters for binary:hinge</t>
+    </r>
+  </si>
+  <si>
+    <t>Improvement, matched F1 best and better Fbeta</t>
   </si>
 </sst>
 </file>
@@ -172,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +206,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -209,12 +234,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -262,191 +287,313 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -456,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,50 +624,78 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,30 +1011,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A1C6D-5342-E248-9087-57011A5BC40D}">
-  <dimension ref="A1:S1048567"/>
+  <dimension ref="A1:S1048568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="8" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" customWidth="1"/>
+    <col min="10" max="13" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="12.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="1"/>
     <col min="19" max="19" width="34.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="18" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -867,25 +1042,25 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -909,42 +1084,42 @@
         <v>7</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:19" ht="17">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12">
         <v>0.01</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>4</v>
       </c>
-      <c r="E2" s="11">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="12">
         <v>0.8</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="12">
         <v>1000</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="13">
         <v>29</v>
@@ -958,588 +1133,678 @@
       <c r="M2" s="13">
         <v>516</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>0.97199999999999998</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>0.749</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="38">
         <v>0.74399999999999999</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="48">
         <v>0.71899999999999997</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="43">
         <v>0.67400000000000004</v>
       </c>
-      <c r="S2" s="16" t="s">
-        <v>40</v>
+      <c r="S2" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:19" ht="51">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
         <v>0.01</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="17">
         <v>4</v>
       </c>
-      <c r="E3" s="11">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="17">
+        <v>6</v>
+      </c>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="17">
         <v>0.8</v>
       </c>
       <c r="H3" s="17">
         <v>1000</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="19">
+        <v>35</v>
+      </c>
+      <c r="K3" s="19">
+        <v>167</v>
+      </c>
+      <c r="L3" s="19">
+        <v>11</v>
+      </c>
+      <c r="M3" s="19">
+        <v>520</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="P3" s="39">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R3" s="44">
+        <v>0.752</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13">
-        <v>35</v>
-      </c>
-      <c r="K3" s="13">
-        <v>167</v>
-      </c>
-      <c r="L3" s="13">
-        <v>11</v>
-      </c>
-      <c r="M3" s="13">
-        <v>520</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="O3" s="15">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="Q3" s="35">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="R3" s="35">
-        <v>0.752</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>41</v>
+      <c r="C4" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="17">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="18">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="19">
+        <v>66</v>
+      </c>
+      <c r="K4" s="19">
+        <v>136</v>
+      </c>
+      <c r="L4" s="19">
+        <v>37</v>
+      </c>
+      <c r="M4" s="19">
+        <v>494</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="P4" s="39">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="R4" s="44">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
+    <row r="5" spans="1:19" ht="34">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="17">
         <v>0.01</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E4" s="11">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="12">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="13">
-        <v>66</v>
-      </c>
-      <c r="K4" s="13">
-        <v>136</v>
-      </c>
-      <c r="L4" s="13">
-        <v>37</v>
-      </c>
-      <c r="M4" s="13">
-        <v>494</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0.93</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="Q4" s="35">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="R4" s="35">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11">
-        <v>6</v>
-      </c>
-      <c r="F5" s="12">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5" s="17">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6</v>
+      </c>
+      <c r="G5" s="17">
         <v>0.8</v>
       </c>
       <c r="H5" s="17">
         <v>10000</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="19">
         <v>46</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="19">
         <v>256</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="19">
         <v>27</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="19">
         <v>514</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="20">
         <v>0.96799999999999997</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="20">
         <v>0.76700000000000002</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="39">
         <v>0.76400000000000001</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="49">
         <v>0.71599999999999997</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="44">
         <v>0.754</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>43</v>
+      <c r="S5" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+    <row r="6" spans="1:19" ht="51" customHeight="1">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17">
         <v>0.01</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
-        <v>6</v>
-      </c>
-      <c r="F6" s="11">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="E6" s="17">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17">
+        <v>6</v>
+      </c>
+      <c r="G6" s="17">
         <v>0.8</v>
       </c>
       <c r="H6" s="17">
         <v>10000</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="19">
+        <v>80</v>
+      </c>
+      <c r="K6" s="19">
+        <v>122</v>
+      </c>
+      <c r="L6" s="19">
+        <v>59</v>
+      </c>
+      <c r="M6" s="19">
+        <v>472</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0.753</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="R6" s="44">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="13">
+    </row>
+    <row r="7" spans="1:19" ht="34">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="17">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17">
+        <v>6</v>
+      </c>
+      <c r="F7" s="17">
+        <v>6</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="17">
+        <v>8</v>
+      </c>
+      <c r="K7" s="17">
+        <v>194</v>
+      </c>
+      <c r="L7" s="17">
+        <v>8</v>
+      </c>
+      <c r="M7" s="17">
+        <v>523</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P7" s="40">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>0.627</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="18">
         <v>20</v>
       </c>
-      <c r="K6" s="13">
-        <v>5</v>
-      </c>
-      <c r="L6" s="13">
-        <v>6</v>
-      </c>
-      <c r="M6" s="13">
-        <v>11</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="P6" s="15">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="16" t="s">
-        <v>24</v>
+      <c r="E8" s="17">
+        <v>6</v>
+      </c>
+      <c r="F8" s="17">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="18">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19">
+        <v>65</v>
+      </c>
+      <c r="K8" s="19">
+        <v>137</v>
+      </c>
+      <c r="L8" s="19">
+        <v>46</v>
+      </c>
+      <c r="M8" s="19">
+        <v>485</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="P8" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="R8" s="44">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="31">
+    <row r="9" spans="1:19" ht="34">
+      <c r="A9" s="36">
+        <f>+A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17">
         <v>0.01</v>
       </c>
-      <c r="D7" s="31">
-        <v>4</v>
-      </c>
-      <c r="E7" s="31">
-        <v>6</v>
-      </c>
-      <c r="F7" s="31">
-        <v>6</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>6</v>
+      </c>
+      <c r="G9" s="17">
         <v>0.8</v>
       </c>
-      <c r="H7" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="32">
-        <v>21</v>
-      </c>
-      <c r="K7" s="32">
-        <v>4</v>
-      </c>
-      <c r="L7" s="32">
-        <v>6</v>
-      </c>
-      <c r="M7" s="32">
-        <v>11</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="O7" s="33">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="34" t="s">
-        <v>26</v>
+      <c r="H9" s="17">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19">
+        <v>70</v>
+      </c>
+      <c r="K9" s="19">
+        <v>132</v>
+      </c>
+      <c r="L9" s="19">
+        <v>45</v>
+      </c>
+      <c r="M9" s="19">
+        <v>486</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="P9" s="39">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Q9" s="49">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R9" s="44">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="12">
+    <row r="10" spans="1:19" ht="17">
+      <c r="A10" s="36">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13">
-        <v>21</v>
-      </c>
-      <c r="K8" s="13">
-        <v>4</v>
-      </c>
-      <c r="L8" s="13">
-        <v>7</v>
-      </c>
-      <c r="M8" s="13">
-        <v>10</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="11">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11">
-        <v>6</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="13">
-        <v>21</v>
-      </c>
-      <c r="K9" s="13">
-        <v>4</v>
-      </c>
-      <c r="L9" s="13">
-        <v>6</v>
-      </c>
-      <c r="M9" s="13">
-        <v>11</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="O9" s="15">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="E10" s="17">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
         <v>0.8</v>
       </c>
       <c r="H10" s="17">
         <v>10000</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="13">
-        <v>20</v>
-      </c>
-      <c r="K10" s="13">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13">
-        <v>5</v>
-      </c>
-      <c r="M10" s="13">
-        <v>12</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="P10" s="15">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="16" t="s">
-        <v>31</v>
+      <c r="I10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="19">
+        <v>67</v>
+      </c>
+      <c r="K10" s="19">
+        <v>135</v>
+      </c>
+      <c r="L10" s="19">
+        <v>49</v>
+      </c>
+      <c r="M10" s="19">
+        <v>482</v>
+      </c>
+      <c r="N10" s="20">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0.749</v>
+      </c>
+      <c r="Q10" s="49">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="R10" s="44">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+    <row r="11" spans="1:19" ht="34">
+      <c r="A11" s="36">
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.01</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="26">
         <v>10</v>
       </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="E11" s="26">
+        <v>6</v>
+      </c>
+      <c r="F11" s="26">
+        <v>6</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="26">
         <v>10000</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="13">
-        <v>18</v>
-      </c>
-      <c r="K11" s="13">
-        <v>7</v>
-      </c>
-      <c r="L11" s="13">
-        <v>7</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="I11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="26">
+        <v>72</v>
+      </c>
+      <c r="K11" s="26">
+        <v>130</v>
+      </c>
+      <c r="L11" s="26">
+        <v>40</v>
+      </c>
+      <c r="M11" s="26">
+        <v>491</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P11" s="41">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0.749</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="34">
+      <c r="A12" s="36">
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="N11" s="15">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="O11" s="15">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="16" t="s">
-        <v>34</v>
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="17">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="19">
+        <v>72</v>
+      </c>
+      <c r="K12" s="19">
+        <v>130</v>
+      </c>
+      <c r="L12" s="19">
+        <v>55</v>
+      </c>
+      <c r="M12" s="19">
+        <v>476</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="P12" s="39">
+        <v>0.748</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="R12" s="44">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+    <row r="13" spans="1:19" ht="35" thickBot="1">
+      <c r="A13" s="37">
+        <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="30">
         <v>0.01</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="30">
         <v>10</v>
       </c>
-      <c r="E12" s="20">
-        <v>2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>6</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="E13" s="30">
+        <v>6</v>
+      </c>
+      <c r="F13" s="30">
+        <v>6</v>
+      </c>
+      <c r="G13" s="30">
         <v>0.9</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H13" s="30">
         <v>10000</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="27">
-        <v>20</v>
-      </c>
-      <c r="K12" s="27">
-        <v>5</v>
-      </c>
-      <c r="L12" s="27">
-        <v>6</v>
-      </c>
-      <c r="M12" s="27">
-        <v>11</v>
-      </c>
-      <c r="N12" s="28">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="O12" s="28">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="P12" s="28">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="29" t="s">
-        <v>36</v>
+      <c r="I13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="32">
+        <v>50</v>
+      </c>
+      <c r="K13" s="32">
+        <v>152</v>
+      </c>
+      <c r="L13" s="32">
+        <v>16</v>
+      </c>
+      <c r="M13" s="32">
+        <v>515</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="O13" s="33">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P13" s="42">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="R13" s="47">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="8" customFormat="1">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15"/>
@@ -1560,8 +1825,11 @@
       <c r="R15" s="1"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="1048567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C1048567" s="21">
+    <row r="17" spans="2:2">
+      <c r="B17" s="53"/>
+    </row>
+    <row r="1048568" spans="3:3">
+      <c r="C1048568" s="10">
         <v>0.01</v>
       </c>
     </row>
